--- a/REVER_DailyTracker_20200924.xlsx
+++ b/REVER_DailyTracker_20200924.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\September\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC5C6B9-9859-41C3-A30E-01FAF8AA92A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844A9191-DD8B-4471-8B3A-0F7F88917BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -22,20 +22,25 @@
     <sheet name="Prabu" sheetId="11" r:id="rId7"/>
     <sheet name="Ram" sheetId="12" r:id="rId8"/>
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
-    <sheet name="Nirmal" sheetId="17" r:id="rId10"/>
-    <sheet name="Mathes" sheetId="13" r:id="rId11"/>
+    <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="173">
   <si>
     <t>Task</t>
   </si>
@@ -67,31 +72,550 @@
     <t>% of completion</t>
   </si>
   <si>
+    <t>[Backend] CRM</t>
+  </si>
+  <si>
     <t>Hold</t>
   </si>
   <si>
-    <t>29/04/2020</t>
-  </si>
-  <si>
-    <t>Rever B2C</t>
-  </si>
-  <si>
-    <t>IF full flow with technician tracking integration</t>
-  </si>
-  <si>
-    <t>APK sent.</t>
-  </si>
-  <si>
-    <t>MujiStore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
-  </si>
-  <si>
-    <t>HAYAAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WebsiteTranslation                    </t>
+    <t>DotnetAPP</t>
+  </si>
+  <si>
+    <t>Loginpage (Frontend)</t>
+  </si>
+  <si>
+    <t>1. Datass are fetched from CRM table and displayed the results in dropdownlist dynamically
+2. Customer type dropdownlist has been created using using enum and displayed in right order
+3. Working on onchange events to select all emailid based on customer types.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Visited  customer information from the contact us  page of hayaai website has been recorded in the database using
+ PHP and MYQL
+</t>
+  </si>
+  <si>
+    <t>Hayaai website</t>
+  </si>
+  <si>
+    <t>Sending email is in progress</t>
+  </si>
+  <si>
+    <t>data insertion  and email sending are completed, whereas we have tested email sending using gmail.com for contacts.html.
+We are waiting for actual email settings for hayaai site.</t>
+  </si>
+  <si>
+    <t>Email validation and contact number validation has been completed before submiting fields values to the database.</t>
+  </si>
+  <si>
+    <t>RPA_Sale/[Front End]  Full app keyword search</t>
+  </si>
+  <si>
+    <t>Analysing the all tables to fetch all records and keep it as list and obtaining the keyword by filtering from the list and converting 
+the result with paging and pagelisted concept in MVC</t>
+  </si>
+  <si>
+    <t>Searching string in all tables from the entire database has been completed , whereas UI design and development are pending</t>
+  </si>
+  <si>
+    <t>Searching in all tables and fetching the results and displaying the results at bottom of the master pages, whereas other activities
+ like styling and crossref link or sublink tasks are pending.</t>
+  </si>
+  <si>
+    <t>Searching results are coming in right order along with query text, whereas a small design issue is pending and also no data found to be implemented.</t>
+  </si>
+  <si>
+    <t>No data found has been implemented if no records found and etc.
+Attended in RPASale_dev deployeement task</t>
+  </si>
+  <si>
+    <t>Today, I was engaged in rpa selenium tasks for DRS, GRS, and GRD
+DRS was done,
+GRS, till dowload portion is over and whereas, upload is pending as issue in converting xls to csv.</t>
+  </si>
+  <si>
+    <t>Jiffy_to_selenium</t>
+  </si>
+  <si>
+    <t>Conversion from jiffy to selenium for the tasks of Goods Receiving Summary and Goods Receiving details are completed,
+whereas the conversion of warranty is WIP</t>
+  </si>
+  <si>
+    <t>Leave on 22-05-2020</t>
+  </si>
+  <si>
+    <t>RPA Customization</t>
+  </si>
+  <si>
+    <t>Conversion from JIFFY to selenium for the tasks of DRS, GRS and GRD are completed, CSV conversion for warranty is in Pending.</t>
+  </si>
+  <si>
+    <t>Customization of RPA tasks named as GRS and GRD are completed,  no data found for warranty and csv header/contents  validations are in progress. Also DRS no data found is also pending.</t>
+  </si>
+  <si>
+    <t>DRS Daily, DRS Weekly and DRS Monthly are completed with download/upload and no data found.
+Warranty csv file is having issue and hence it has been shared to Mohan san.</t>
+  </si>
+  <si>
+    <t>Warranty CSV file is having uploading issue.</t>
+  </si>
+  <si>
+    <t>POC confirmation task  has been implemented at new bot, and it will work for download and upload success</t>
+  </si>
+  <si>
+    <t>1. Fine tuning with DRS, GRS and GRD are done.
+2. POC task has been implementation done with download/upload/nodata found/failed to download steps are tested and 
+3. OtherSales(extended warranty ) implementation is going on with PO values/withou PO values to get UnitPrice along with download and upload steps are in Progress.
+4. Mr Mohan san has asked to run GRS and GRD for all centers to know the success and issue while running continueously.</t>
+  </si>
+  <si>
+    <t>Tested for all services dynamically for DRS, GRS and GRD are done, In GRDetails a file moving issue after uploading.</t>
+  </si>
+  <si>
+    <t>POC Task tested and validated for downloading, uploading and for no data found with email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. POC Tasks for all centers has been developed  to download and upload
+2. GRS and GRDetails tasks are completed.
+3. CommunicationBoard task has been tested for SSC1, as could not find notification, we could not complete the test for all centers
+</t>
+  </si>
+  <si>
+    <t>1.POC tasks tested for all centeres excluding SSC10 individually at new bot
+2. Anchor element not found at JIFFY for DRS and Warranty daily tasks has been solved and it is running smoothly to download and
+upload.</t>
+  </si>
+  <si>
+    <t>POC Tasks are completed and tested till SSC6 and are going smooth for download and uploaded for rpa customization tasks,
+POC Taks are placed at scheduler
+Also developed code to convert purchase summary xls to csv file and uploaded successful.</t>
+  </si>
+  <si>
+    <t>Invalid data Issue during upload at SSC10 of Warranty task has been solved and updated script file also shared to Mohan san.</t>
+  </si>
+  <si>
+    <t>Dowload and upload for POC task has been tested from SSC1 to SSC10 exclusing SSC5 and SSC9 and going smooth and 
+placed in scheduler.(newbot)</t>
+  </si>
+  <si>
+    <t>Hayaai-Website</t>
+  </si>
+  <si>
+    <t>Learning and reviewing the Hayaai-Website</t>
+  </si>
+  <si>
+    <t>Learning and reviewing the Hayaai-Website in Laravel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Supporting to RPA customization for Purchase details task of xls to csv conversion and uploading the same at MVS.
+2. Customizing the Monthly OtherSales task is in Progress.</t>
+  </si>
+  <si>
+    <t>1. Supported to laravel installation for web design</t>
+  </si>
+  <si>
+    <t>2. Customizing the Monthly Otherssales task is in Progress ( upto fetching data from the extended warranty is over,
+3. Whereas With PO task and Without PO task are pending and it is connected task of OtherSales</t>
+  </si>
+  <si>
+    <t>1. With PO task and Without PO task are done and it is connected task of OtherSales
+2.OtherSales tasks are completed for SSC1, whereas it has to tested for all SSC  as data fetching method is varying from center to centers.
+3. Learning wordpress and is going.</t>
+  </si>
+  <si>
+    <t>GSS website</t>
+  </si>
+  <si>
+    <t>Learning and Supporting GSS website editing  in wordpress</t>
+  </si>
+  <si>
+    <t>Correction received for taks DRS-Weekly for all SSC and POC tasks for uploading issue at SSC10 and both corrections were rectified.
+ Supporting to GSS website page editing.</t>
+  </si>
+  <si>
+    <t>1.The Othersales extended warranty  tasks has been completed and tested for SSCs to fetch data and converting csv and 
+uploading success
+2. RPA customization of Saw discounts is work in Progress.</t>
+  </si>
+  <si>
+    <t>1. Saw Discount task has been completed and tested for all SSCs to get a download, csvconversion and upload are success.</t>
+  </si>
+  <si>
+    <t>2. Correction has been received for the OtherSales task and work in progress.</t>
+  </si>
+  <si>
+    <t>1. StockOverView task has been completed and tested for three SSCs to know about downloading, csv file conversion, and uploading are success, remaining SSCs to be tested.</t>
+  </si>
+  <si>
+    <t>1. StockOverView task has tested for all SSCs to download, CSV file conversion and uploading are success.</t>
+  </si>
+  <si>
+    <t>Return Credit Monthly task has been completed and tested in all SSCs to get downloading, CSV file conversion, uploading and 
+file moving to backup folder and are functioning perfectly.</t>
+  </si>
+  <si>
+    <t>Storing changed password into Database is in WIP</t>
+  </si>
+  <si>
+    <t>1. Corrections of GRS_Details tasks has been done
+2. Analysing the Google forms</t>
+  </si>
+  <si>
+    <t>3. Working in Progress of Communication board</t>
+  </si>
+  <si>
+    <t>1. Corrections of GRS_Details tasks has been done
+2. Analysing the Google forms and sending email on submission done.</t>
+  </si>
+  <si>
+    <t>1. Analysing the google excel sheet, and sending bulk emails at time is done.(50 emails)
+2.Correction at GRS_Details of SSC3 has been done.</t>
+  </si>
+  <si>
+    <t>1.Correction at GRS_Details of SSC3 was Work in Progress</t>
+  </si>
+  <si>
+    <t>1.Correction at GRS_Details of SSC3 has been completed and tested for all SSC to get download, csv conversion and upload are 
+success.</t>
+  </si>
+  <si>
+    <t>1. Received errors from DRS-DAILY, Weekly and Monthly had been reviewed due to not uploading at MVS and later on 
+issue fixed at QMVR
+2.Communication board clearing task in WIP</t>
+  </si>
+  <si>
+    <t>1. Communication board clearing task has been completed and tested for one SSC only and remaining Center to be tested
+2. Correction of SawDiscount_monthly task has been fixed and tested for all SSC and running smoothly from download, csv file
+conversion, and uploading.</t>
+  </si>
+  <si>
+    <t>1. Communication board clearing task has been completed and waiting communication board pending notice to test all centers</t>
+  </si>
+  <si>
+    <t>2. Working on Password management to store at Database.</t>
+  </si>
+  <si>
+    <t>1. New issues are raised while running a communication board to pending clear notice.
+Hence, we may have to look new approach.
+2. Checking  the email from contact form and login and sigup form in Haiyaai and gss website.</t>
+  </si>
+  <si>
+    <t>1. OtherSales corrections Received and it is work in progress</t>
+  </si>
+  <si>
+    <t>2. Communication board is work in progress.</t>
+  </si>
+  <si>
+    <t>1. Corrections Received for Warranty and it had been completed, tested success and shared to Mohan san</t>
+  </si>
+  <si>
+    <t>2. Corrections Received for GRS-Details and it had been completed, tested success and shared to Mohan san</t>
+  </si>
+  <si>
+    <t>3. Small brief about RPA workflow, creation, execution and uplading,(python/selenium/) has been given to Sabeena san</t>
+  </si>
+  <si>
+    <t>4. Data validation support for OtherSales task  has been to Prabhu with GSPN site.</t>
+  </si>
+  <si>
+    <t>Correction of ReturnCredit Task has been completed and tested in all SSCs and running smooth.</t>
+  </si>
+  <si>
+    <t>1. Correction of POC task has been completed and tested in all SSC and running smooth.
+2. CommunicationBoard task has been completed and to be tested.</t>
+  </si>
+  <si>
+    <t>1. Communication borad task is work in progress in new approach for all SSCs.</t>
+  </si>
+  <si>
+    <t>1. Communication beard task is completed as fresh one, whereas implementation of logg is pending.</t>
+  </si>
+  <si>
+    <t>2. Storing pwd at database is work in progress</t>
+  </si>
+  <si>
+    <t>The communication board task has been completed, log implemented and tested in all SSCs and working fine, whereas a
+rerun process is pending now.</t>
+  </si>
+  <si>
+    <t>The rerun processes has been implemented at Communication task and tested success.</t>
+  </si>
+  <si>
+    <t>RPA Training</t>
+  </si>
+  <si>
+    <t>1. Python Introduction(Version, Cmd, Idle, Pycharm)</t>
+  </si>
+  <si>
+    <t>2. Data types with example</t>
+  </si>
+  <si>
+    <t>3. Rerun process are success for the communication board, whereas yet to fine tuning is pending.</t>
+  </si>
+  <si>
+    <t>1. Continuation of Data types,  Dictionary, conditional statements, looping statements (if, else, for, break,continue and pass)</t>
+  </si>
+  <si>
+    <t>1. Correction of communication task has been done  and tested success.</t>
+  </si>
+  <si>
+    <t>2. Preparations for the Training</t>
+  </si>
+  <si>
+    <t>1. Correction of DRSDaily and Communication has been done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. RPA Training has been handled </t>
+  </si>
+  <si>
+    <t>1. Correction of Communication board  has been completed, tested in all SSCs and functioning perfect</t>
+  </si>
+  <si>
+    <t>2. RPA Training has been handled on 4th day.</t>
+  </si>
+  <si>
+    <t>1. One new update received to store ESG Notice texts in database, implemented, tested in all SSCs and running smoothly.</t>
+  </si>
+  <si>
+    <t>2. RPA Training has been handled on 5th day.</t>
+  </si>
+  <si>
+    <t>1. One update is received for Goods Receiving Details task and completed, tested in all SSCs.</t>
+  </si>
+  <si>
+    <t>1. GRS-Details received for data validation in CSV file with GSPN data and tested in all SSCs and downloading and uploading 
+with exact data
+2. Working on Password management is work in progress</t>
+  </si>
+  <si>
+    <t>1. RPA Training handled and completed on 03/08/2020</t>
+  </si>
+  <si>
+    <t>2. Working on Password management</t>
+  </si>
+  <si>
+    <t>Working on Password Management is work in progress</t>
+  </si>
+  <si>
+    <t>1. Working on Password Management and updating database during password changes are done</t>
+  </si>
+  <si>
+    <t>2. Due to security issue for Unique password, working on different approach to get success.</t>
+  </si>
+  <si>
+    <t>RPA customization</t>
+  </si>
+  <si>
+    <t>The Password management has been completed and tested in multiple SSCs and are success.</t>
+  </si>
+  <si>
+    <t>RPA Sony</t>
+  </si>
+  <si>
+    <t>RPASony</t>
+  </si>
+  <si>
+    <t>1. Correction received for the Pwd and work in progress</t>
+  </si>
+  <si>
+    <t>Involved in R and D, regarding the captcha at SONY project is going on.</t>
+  </si>
+  <si>
+    <t>2. Attended KT for SONY</t>
+  </si>
+  <si>
+    <t>3. R and D in Captcha storing as image</t>
+  </si>
+  <si>
+    <t>1. Corrections of the communication board task has been done, tested in all SSCs, and running smoothly.</t>
+  </si>
+  <si>
+    <t>2. Storing captcha image is success at SONY RPA.</t>
+  </si>
+  <si>
+    <t>1. UnboundList task has been completed at SONY, downloading and CSV file conversion are completed.</t>
+  </si>
+  <si>
+    <t>1. Downloading of RPSI task is work in Progress</t>
+  </si>
+  <si>
+    <t>2. Correction of GRS-Details has been done and tested in all SSCs.</t>
+  </si>
+  <si>
+    <t>2. OutboundList task has been uploaded</t>
+  </si>
+  <si>
+    <t>3. Downloading of InboundList task has been completed, upload is pending.</t>
+  </si>
+  <si>
+    <t>1. Downloading of RPSI task is completed, upload is pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPASony </t>
+  </si>
+  <si>
+    <t>1. Correction and new logic in the password management task has been implemented, tested and running smooth.</t>
+  </si>
+  <si>
+    <t>1. Supporting to Password management and launched successfully</t>
+  </si>
+  <si>
+    <t>2. Supporting to Monisha task( StockList Report) and Parts List for downloading and CSV file conversion</t>
+  </si>
+  <si>
+    <t>1. Supporting to Sony RPA to convert from xls to csv file for stock report and parts list tasks.</t>
+  </si>
+  <si>
+    <t>RPA Sony Customization (integration) is work in progress for the OutboundList task.</t>
+  </si>
+  <si>
+    <t>21-08-2020(Leave)</t>
+  </si>
+  <si>
+    <t>1. Date Wise Sales Report is work in progress,  whereas VPN is establishing error</t>
+  </si>
+  <si>
+    <t>2. Integration work is work in progress for OutboundList task</t>
+  </si>
+  <si>
+    <t>1. Customisation of OutboundList task has been completed and tested,  it is success</t>
+  </si>
+  <si>
+    <t>2. Customization of InboundList task has been completed and tested, it is success</t>
+  </si>
+  <si>
+    <t>1. Customization of the stockreport task  has been completed, tested, it is success</t>
+  </si>
+  <si>
+    <t>2. Customization of the RPSI task has been completed, tested and it is success</t>
+  </si>
+  <si>
+    <t>1. Customization of PartsReport List has been completed, tested and it is running success</t>
+  </si>
+  <si>
+    <t>2. Work in Progress for the task of Scheduling Report.</t>
+  </si>
+  <si>
+    <t>1. Only five files can be downloaded of 31 files due to site issue,  and hence, we have to relogin and download the remaining files 
+like each login will download 5 files  to avoid intruption  and it is a new logic to download and work in progress.</t>
+  </si>
+  <si>
+    <t>1. Sony RPA task SchedulingReport is in work progress.</t>
+  </si>
+  <si>
+    <t>2. Corrections are received for the GSPN tasks named as Stockoverview for data fetching issue  and SawDiscount for invalid data</t>
+  </si>
+  <si>
+    <t>3. SawDiscount has been completed and tested in all SSCs, whereas Stockoverview is pending due to GSPN site issue.</t>
+  </si>
+  <si>
+    <t>RPA Samsung</t>
+  </si>
+  <si>
+    <t>1. Corrections are completed, tested and success for the tasks of SawDiscount and GRS-Detatils</t>
+  </si>
+  <si>
+    <t>2. Downloading the  all files for the SchedulingReport task has been completed excluding alert click., whereas Alert click OK is pending.</t>
+  </si>
+  <si>
+    <t>1. Development has been done for Captcha verification error and for Username/password verification error  and tested and success</t>
+  </si>
+  <si>
+    <t>2.Tried to install VPN with windows updates at the oldbot, but it is failed, wrote an email.</t>
+  </si>
+  <si>
+    <t>1. Regarding OK button click,  using thread concept for scheduling_report task has been completed success and downloading files</t>
+  </si>
+  <si>
+    <t>1. Downloading InvoicePDF and Excel  files has been done for the task of InvoicePDF and InvoiceExcel</t>
+  </si>
+  <si>
+    <t>1. Supporting to system admin to windows update and VPN issue</t>
+  </si>
+  <si>
+    <t>2. Merging xlsx files based on file name for shedulingreport task is work in progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPAGSPN </t>
+  </si>
+  <si>
+    <t>Date search is fixed at warranty task and tested and it is success</t>
+  </si>
+  <si>
+    <t>RPAGSPN</t>
+  </si>
+  <si>
+    <t>1. Corrections of communication board task has been completed and tested in all SSCs and running smoothly</t>
+  </si>
+  <si>
+    <t>2. R and D on IETAB in chrome is going on</t>
+  </si>
+  <si>
+    <t>2. Merging the IN_daily_UnRepaipairset_NP csv files are done</t>
+  </si>
+  <si>
+    <t>1. Merging the IN_Daily_OS_Reservation csv files are done</t>
+  </si>
+  <si>
+    <t>1. Customization work is in progress for the tasks of schedulinReport for the monthly and daily</t>
+  </si>
+  <si>
+    <t>2. B2B extended warranty is in progress from the afternoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Task of Stock Available report has been done to download and it is fine in chrome </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Task of Datewise sales report has been done to download  and it is fine in chrome </t>
+  </si>
+  <si>
+    <t>1. Uploading and customisation has been done for the task datewisesalesreport</t>
+  </si>
+  <si>
+    <t>2. Uploading and customisation has been done for the task stockavailablereport</t>
+  </si>
+  <si>
+    <t>1. Partial Customization has been done for the task of InvoicePdf_excel to download Pdf and Excel</t>
+  </si>
+  <si>
+    <t>1. Corrections received for the sony b2b extended warranty task to autologin the paloalto global network(firewall) is in progress.</t>
+  </si>
+  <si>
+    <t>RPA GSPN</t>
+  </si>
+  <si>
+    <t>1. Corrections received for the task of warrant, it has been fixed and tested in all SSCs and running smoothly</t>
+  </si>
+  <si>
+    <t>2. Date Input method is work in progress for SONY and GSPN for backlog date</t>
+  </si>
+  <si>
+    <t>1. Creation of datefile.txt  for inputing the date to the DRS-Daily, DRS-Monthly, Warranty_daily, GRS-Daily, GRS_details_daily and
+POC daily tasks has been completed and tested and running smoothly</t>
+  </si>
+  <si>
+    <t>1. Creation of datefile.txt  for inputing the date to the DRS-Weekly, and OtherSales extended warranty tasks has been completed 
+and tested and running smoothly</t>
+  </si>
+  <si>
+    <t>1. Creation of datefile.txt  for inputing the date to the SAWDiscount task has been completed, tested and running smoothly</t>
+  </si>
+  <si>
+    <t>RPA SONY</t>
+  </si>
+  <si>
+    <t>2. SONY Upload alone has been done for the below mentioned tasks
+113.Daily Abandon
+114.Daily Accumulated_KPI_Report
+115.Daily_ASCPartsUsed
+116.Daily_Claim
+117.Daily_Delivered</t>
+  </si>
+  <si>
+    <t>2. SONY Upload alone has been done for the below mentioned tasks
+112 .ASC Invoice Data
+118.Daily_OS_Reservation
+119.Daily_Receiveset
+137.Monthly_SOMC_Claim</t>
   </si>
 </sst>
 </file>
@@ -101,7 +625,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,22 +646,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -179,7 +687,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,27 +723,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -252,49 +744,34 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,25 +1082,1203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G356"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="G360" sqref="G360"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4">
+        <v>90</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4">
+        <v>95</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G71" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>44</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>44</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>30</v>
+      </c>
+      <c r="G79" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G84" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>30</v>
+      </c>
+      <c r="G88" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>51</v>
+      </c>
+      <c r="G93" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>30</v>
+      </c>
+      <c r="G97" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>30</v>
+      </c>
+      <c r="G100" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G105" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>30</v>
+      </c>
+      <c r="G108" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>30</v>
+      </c>
+      <c r="G116" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>30</v>
+      </c>
+      <c r="G120" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>30</v>
+      </c>
+      <c r="G123" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G124" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>30</v>
+      </c>
+      <c r="G126" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>30</v>
+      </c>
+      <c r="G129" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>30</v>
+      </c>
+      <c r="G132" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D135" t="s">
+        <v>30</v>
+      </c>
+      <c r="G135" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D139" t="s">
+        <v>30</v>
+      </c>
+      <c r="G139" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D143" t="s">
+        <v>30</v>
+      </c>
+      <c r="G143" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D146" t="s">
+        <v>30</v>
+      </c>
+      <c r="G146" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G147" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="150" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>30</v>
+      </c>
+      <c r="G150" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D154" t="s">
+        <v>30</v>
+      </c>
+      <c r="G154" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G155" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D158" t="s">
+        <v>30</v>
+      </c>
+      <c r="G158" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G159" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G160" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="161" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G161" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D164" t="s">
+        <v>30</v>
+      </c>
+      <c r="G164" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="168" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D168" t="s">
+        <v>30</v>
+      </c>
+      <c r="G168" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="173" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D173" t="s">
+        <v>30</v>
+      </c>
+      <c r="G173" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="177" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D177" t="s">
+        <v>30</v>
+      </c>
+      <c r="G177" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="178" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G178" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="181" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D181" t="s">
+        <v>30</v>
+      </c>
+      <c r="G181" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="184" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D184" t="s">
+        <v>30</v>
+      </c>
+      <c r="G184" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="186" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D186" t="s">
+        <v>85</v>
+      </c>
+      <c r="G186" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="187" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G187" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="188" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G188" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="190" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D190" t="s">
+        <v>85</v>
+      </c>
+      <c r="G190" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="193" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D193" t="s">
+        <v>85</v>
+      </c>
+      <c r="G193" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="194" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G194" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="196" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D196" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="199" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D199" t="s">
+        <v>85</v>
+      </c>
+      <c r="G199" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="200" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G200" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="203" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D203" t="s">
+        <v>85</v>
+      </c>
+      <c r="G203" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="204" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G204" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="207" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D207" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="208" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G208" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="209" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G209" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="211" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D211" t="s">
+        <v>85</v>
+      </c>
+      <c r="G211" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="212" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G212" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="216" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D216" t="s">
+        <v>85</v>
+      </c>
+      <c r="G216" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="220" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D220" t="s">
+        <v>85</v>
+      </c>
+      <c r="G220" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="221" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G221" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="225" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D225" t="s">
+        <v>85</v>
+      </c>
+      <c r="G225" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="228" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D228" t="s">
+        <v>85</v>
+      </c>
+      <c r="G228" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="229" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G229" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="231" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D231" t="s">
+        <v>105</v>
+      </c>
+      <c r="G231" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="234" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D234" t="s">
+        <v>107</v>
+      </c>
+      <c r="G234" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="236" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D236" t="s">
+        <v>108</v>
+      </c>
+      <c r="G236" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="237" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G237" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="238" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G238" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="241" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D241" t="s">
+        <v>105</v>
+      </c>
+      <c r="G241" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="242" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G242" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="245" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D245" t="s">
+        <v>108</v>
+      </c>
+      <c r="G245" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="248" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D248" t="s">
+        <v>108</v>
+      </c>
+      <c r="G248" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="249" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G249" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="252" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D252" t="s">
+        <v>108</v>
+      </c>
+      <c r="G252" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="253" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G253" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="254" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G254" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="257" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D257" t="s">
+        <v>121</v>
+      </c>
+      <c r="G257" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="260" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D260" t="s">
+        <v>108</v>
+      </c>
+      <c r="G260" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="261" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G261" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="264" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D264" t="s">
+        <v>108</v>
+      </c>
+      <c r="G264" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="267" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D267" t="s">
+        <v>108</v>
+      </c>
+      <c r="G267" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="271" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D271" t="s">
+        <v>108</v>
+      </c>
+      <c r="G271" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="275" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D275" t="s">
+        <v>108</v>
+      </c>
+      <c r="G275" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="276" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G276" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="280" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D280" t="s">
+        <v>108</v>
+      </c>
+      <c r="G280" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="281" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G281" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="283" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D283" t="s">
+        <v>108</v>
+      </c>
+      <c r="G283" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="284" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G284" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="288" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D288" t="s">
+        <v>108</v>
+      </c>
+      <c r="G288" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="289" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G289" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="292" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D292" t="s">
+        <v>108</v>
+      </c>
+      <c r="G292" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="295" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D295" t="s">
+        <v>107</v>
+      </c>
+      <c r="G295" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="296" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G296" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="297" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G297" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="300" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D300" t="s">
+        <v>140</v>
+      </c>
+      <c r="G300" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="302" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D302" t="s">
+        <v>108</v>
+      </c>
+      <c r="G302" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="304" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D304" t="s">
+        <v>108</v>
+      </c>
+      <c r="G304" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="307" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D307" t="s">
+        <v>108</v>
+      </c>
+      <c r="G307" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="308" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G308" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="310" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D310" t="s">
+        <v>108</v>
+      </c>
+      <c r="G310" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="313" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D313" t="s">
+        <v>108</v>
+      </c>
+      <c r="G313" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="314" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G314" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="316" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D316" t="s">
+        <v>149</v>
+      </c>
+      <c r="G316" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="318" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D318" t="s">
+        <v>151</v>
+      </c>
+      <c r="G318" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="319" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G319" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="321" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D321" t="s">
+        <v>108</v>
+      </c>
+      <c r="G321" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="322" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G322" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="324" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D324" t="s">
+        <v>108</v>
+      </c>
+      <c r="G324" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="325" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G325" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="328" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D328" t="s">
+        <v>108</v>
+      </c>
+      <c r="G328" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="329" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G329" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="332" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D332" t="s">
+        <v>108</v>
+      </c>
+      <c r="G332" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="333" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G333" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="336" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D336" t="s">
+        <v>108</v>
+      </c>
+      <c r="G336" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="339" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D339" t="s">
+        <v>108</v>
+      </c>
+      <c r="G339" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="342" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D342" t="s">
+        <v>164</v>
+      </c>
+      <c r="G342" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="343" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G343" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="346" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D346" t="s">
+        <v>164</v>
+      </c>
+      <c r="G346" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="349" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D349" t="s">
+        <v>164</v>
+      </c>
+      <c r="G349" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="352" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D352" t="s">
+        <v>164</v>
+      </c>
+      <c r="G352" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="353" spans="4:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="D353" t="s">
+        <v>170</v>
+      </c>
+      <c r="G353" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="356" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="D356" t="s">
+        <v>170</v>
+      </c>
+      <c r="G356" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -642,18 +2297,20 @@
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -662,49 +2319,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -713,26 +2370,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -755,7 +2413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -764,7 +2422,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -773,49 +2431,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -824,26 +2482,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -866,30 +2525,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -898,49 +2543,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -949,26 +2594,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -991,142 +2637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1135,7 +2646,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1144,49 +2655,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1195,26 +2706,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1237,7 +2749,131 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1246,7 +2882,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1255,49 +2891,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1306,138 +2942,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="48.6" customHeight="1">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22">
-        <v>44098</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1460,7 +2985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1469,7 +2994,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1478,49 +3003,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1529,26 +3054,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1571,7 +3097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1580,7 +3106,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1589,49 +3115,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1640,26 +3166,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1682,7 +3209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1691,7 +3218,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1700,160 +3227,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_20200924.xlsx
+++ b/REVER_DailyTracker_20200924.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04BB0A1-04DF-4BC4-A243-0E3A57C28749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0823135B-9189-48BE-9F53-198E36F7964D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="18">
   <si>
     <t>No</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t xml:space="preserve">Regression testing on B2C , Hayaai and Vastu shashtra site </t>
+  </si>
+  <si>
+    <t>Hayaai-B2B</t>
+  </si>
+  <si>
+    <t>New Push Notification while technician starting for Job</t>
+  </si>
+  <si>
+    <t>Pickup delivery new update customer info passing to Job</t>
   </si>
 </sst>
 </file>
@@ -583,15 +592,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -615,7 +624,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="25"/>
@@ -688,19 +697,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="72.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="72.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -825,15 +834,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -936,15 +945,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -970,7 +979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -981,7 +990,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1051,15 +1060,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1158,19 +1167,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1199,9 +1208,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
@@ -1209,8 +1224,12 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4">
+        <v>60</v>
+      </c>
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
@@ -1273,15 +1292,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1373,15 +1392,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1484,15 +1503,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1595,15 +1614,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1706,15 +1725,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
